--- a/花花酱 LeetCode 题目分类 https___bit.ly_2E8yBHq _ youtube.com_user_xxfflower .xlsx
+++ b/花花酱 LeetCode 题目分类 https___bit.ly_2E8yBHq _ youtube.com_user_xxfflower .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/w0w00t5/Documents/Github/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DA2D4C-B495-3C4E-A1BB-752029210A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52B1C0F-1B85-0A42-8278-ADBFCC12D23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2480" windowWidth="28800" windowHeight="12220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Advanced" sheetId="1" r:id="rId1"/>
@@ -55,6 +55,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Hi Huahua, Do you have plan to complete this excel? Or is it also done?
 	-L. Zhan
@@ -74,6 +75,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>211
 	-Bo Wen</t>
@@ -87,6 +89,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>这个类型的题目还有42, 84, 239, 496, 503
 	-Fan Jiang</t>
@@ -110,6 +113,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>https://youtu.be/6nQ2jfs7a7I
 	-Xue Cong Li</t>
@@ -133,6 +137,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>https://www.youtube.com/watch?v=2SVLYsq5W8M
 	-Xue Cong Li</t>
@@ -156,6 +161,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>BFS
 	-Siwen Yang</t>
@@ -169,6 +175,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Backtracking
 	-Chen-I Chang</t>
@@ -192,6 +199,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>dp[i]={dp[i-1], dp[i-1]+sum}
 	-LT Dreamy</t>
@@ -205,6 +213,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>dp[i]=max(dp[i-1],dp[i-2]+nums[i])
 	-LT Dreamy</t>
@@ -218,6 +227,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>dfs or DP, not so easy.
 	-LT Dreamy</t>
@@ -231,6 +241,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Knapsack Problem
 	-Wenxiao Song
@@ -252,6 +263,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>518. Coin Change 2  也是这一类，有助于拓展思路
 	-Amy Ma
@@ -267,6 +279,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>这道题是不是用DP的话就有点复杂了？Backtrack应该是最优解吧？
 	-Dan Li</t>
@@ -280,6 +293,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>链接不对
 	-Window Crystal
@@ -305,6 +319,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>886 Possible Bipartition
 	-曹蒙</t>
@@ -318,6 +333,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>这题按我的理解来说应该是属于最短路径？
 	-张苏跃</t>
@@ -331,6 +347,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>这不是DP的么？
 	-Dan Li</t>
@@ -354,6 +371,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Difficulty of this problem is easy.
 	-李金尧</t>
@@ -377,6 +395,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>still need to use DP to check...
 	-Hua Hua</t>
@@ -390,6 +409,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>https://www.youtube.com/watch?v=qvtYRm4reL4
 	-R P</t>
@@ -403,6 +423,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>702是不是也可以加进去
 	-Yongfeng Cui
@@ -430,6 +451,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>感谢花花！🙏
 	-匿名</t>
@@ -443,6 +465,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>非常感谢分享！但是有个疑问HashTable, Greedy这些tab下为啥题目这么少？很多行后面都有星星但前面没有题目了。是删除了一些吗？
 	-李瑜伟
@@ -460,6 +483,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>HashTable</t>
         </r>
@@ -468,6 +492,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>是只有</t>
         </r>
@@ -476,6 +501,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Two Sum</t>
         </r>
@@ -484,6 +510,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>吗</t>
         </r>
@@ -492,6 +519,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -501,6 +529,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">	-</t>
         </r>
@@ -509,6 +538,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>张悦</t>
         </r>
@@ -517,6 +547,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -526,6 +557,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">_Marked as resolved_
 </t>
@@ -535,6 +567,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">	-Ayuumi
 </t>
@@ -544,6 +577,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">_Re-opened_
 </t>
@@ -553,6 +587,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">	-Zhiqiang Sun
 </t>
@@ -562,6 +597,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">_Marked as resolved_
 </t>
@@ -571,6 +607,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">	-Zhiqiang Sun
 </t>
@@ -580,6 +617,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">_Re-opened_
 </t>
@@ -589,6 +627,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">	-</t>
         </r>
@@ -597,6 +636,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>李瑜伟</t>
         </r>
@@ -605,6 +645,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -614,6 +655,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">_Marked as resolved_
 </t>
@@ -623,6 +665,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">	-Bo Li
 </t>
@@ -632,6 +675,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">_Re-opened_
 </t>
@@ -641,6 +685,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">	-</t>
         </r>
@@ -649,6 +694,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>李瑜伟</t>
         </r>
@@ -657,6 +703,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -666,6 +713,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>同问</t>
         </r>
@@ -674,6 +722,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> HashTable</t>
         </r>
@@ -682,6 +731,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>是只有</t>
         </r>
@@ -690,6 +740,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Two Sum</t>
         </r>
@@ -698,6 +749,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>和</t>
         </r>
@@ -706,6 +758,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>560</t>
         </r>
@@ -714,6 +767,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>吗</t>
         </r>
@@ -722,6 +776,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -731,6 +786,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">	-Sirui Bi
 </t>
@@ -740,6 +796,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">30 Substring with Concatenation of All Words
 </t>
@@ -749,6 +806,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">	-Good Wish</t>
         </r>
@@ -771,6 +829,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>像5. Longest Palindromic Substring这种可以DP可以greedy的是不是也可以放这里？
 	-Lili Man</t>
@@ -784,6 +843,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>45 Jump Game II
 	-Jerry Wu</t>
@@ -797,6 +857,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Frog Jump
 	-Good Wish</t>
@@ -820,6 +881,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Test case with bug or incorrect description. Suggest removing here
 	-Nathan Du
@@ -833,7 +895,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="84">
   <si>
     <t>人手一本的算法书</t>
   </si>
@@ -1074,12 +1136,24 @@
   <si>
     <t>Subarray sum: hashtable + prefix sum(value: occurance)</t>
   </si>
+  <si>
+    <t>three sum</t>
+  </si>
+  <si>
+    <t>two Sum ii</t>
+  </si>
+  <si>
+    <t>subarray sum</t>
+  </si>
+  <si>
+    <t>two sum ii: hashset</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1088,109 +1162,132 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1356,7 +1453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1489,6 +1586,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1812,11 +1911,11 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="59" t="e">
+      <c r="C1" s="61" t="e">
         <f ca="1">IMAGE("HTTPS://ws-na.amazon-adsystem.com/widgets/q?_encoding=UTF8&amp;ASIN=0262033844&amp;Format=_SL160_&amp;ID=AsinImage&amp;MarketPlace=US&amp;ServiceVersion=20070822&amp;WS=1&amp;tag=mytechroad-20&amp;language=en_US")</f>
         <v>#NAME?</v>
       </c>
-      <c r="D1" s="60"/>
+      <c r="D1" s="62"/>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -1834,8 +1933,8 @@
         <f>HYPERLINK("https://amzn.to/2GSraGh","Introduction to Algorithms, 3rd Edition")</f>
         <v>Introduction to Algorithms, 3rd Edition</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1850,8 +1949,8 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1866,8 +1965,8 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="4"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1948,15 +2047,15 @@
       <c r="C8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="60"/>
       <c r="K8" s="13" t="s">
         <v>6</v>
       </c>
@@ -9217,15 +9316,15 @@
       <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="60"/>
       <c r="K3" s="13" t="s">
         <v>6</v>
       </c>
@@ -13415,7 +13514,7 @@
   <dimension ref="A1:N1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -13434,7 +13533,7 @@
       </c>
       <c r="C1" s="3">
         <f>COUNTIF(B5:B1001,"?*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="3">
         <f>COUNTIF(D4:J1001,"?*")</f>
@@ -13442,7 +13541,7 @@
       </c>
       <c r="E1" s="4">
         <f>C1+D1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -13480,15 +13579,15 @@
       <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="60"/>
       <c r="K3" s="13" t="s">
         <v>6</v>
       </c>
@@ -13578,8 +13677,12 @@
       <c r="N6" s="26"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="13">
+        <v>15</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>80</v>
+      </c>
       <c r="C7" s="12"/>
       <c r="D7" s="47"/>
       <c r="E7" s="18"/>
@@ -20641,18 +20744,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -20711,15 +20814,15 @@
       <c r="C4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="13" t="s">
         <v>6</v>
       </c>
@@ -24987,15 +25090,15 @@
       <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="60"/>
       <c r="K3" s="13" t="s">
         <v>6</v>
       </c>
@@ -32240,15 +32343,15 @@
       <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="60"/>
       <c r="K3" s="13" t="s">
         <v>6</v>
       </c>
@@ -39590,15 +39693,15 @@
       <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="60"/>
       <c r="K3" s="13" t="s">
         <v>6</v>
       </c>
@@ -39633,7 +39736,7 @@
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="63" t="s">
         <v>13</v>
       </c>
     </row>
@@ -39655,7 +39758,7 @@
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="62"/>
+      <c r="K5" s="64"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="A6" s="13">
@@ -39678,7 +39781,7 @@
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="24"/>
-      <c r="K6" s="63"/>
+      <c r="K6" s="65"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="A7" s="13">
@@ -39740,7 +39843,7 @@
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
-      <c r="K8" s="61" t="s">
+      <c r="K8" s="63" t="s">
         <v>30</v>
       </c>
     </row>
@@ -39765,7 +39868,7 @@
       <c r="H9" s="24"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="63"/>
+      <c r="K9" s="65"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
       <c r="A10" s="13">
@@ -39997,7 +40100,7 @@
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="24"/>
-      <c r="K17" s="61" t="s">
+      <c r="K17" s="63" t="s">
         <v>41</v>
       </c>
     </row>
@@ -40025,7 +40128,7 @@
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
-      <c r="K18" s="63"/>
+      <c r="K18" s="65"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
       <c r="A19" s="13">
@@ -44105,15 +44208,15 @@
       <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="60"/>
       <c r="K3" s="13" t="s">
         <v>6</v>
       </c>
@@ -48470,7 +48573,9 @@
   </sheetPr>
   <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -48534,14 +48639,14 @@
       <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="60"/>
       <c r="J3" s="39"/>
       <c r="K3" s="13" t="s">
         <v>6</v>
@@ -52877,15 +52982,15 @@
       <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="60"/>
       <c r="K3" s="13" t="s">
         <v>6</v>
       </c>
@@ -57117,7 +57222,7 @@
     <col min="4" max="8" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="16">
       <c r="A1" s="43"/>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -57139,7 +57244,7 @@
       <c r="H1" s="43"/>
       <c r="I1" s="43"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" ht="16">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -57160,13 +57265,13 @@
       <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="60"/>
       <c r="I3" s="13" t="s">
         <v>6</v>
       </c>
@@ -62300,8 +62405,8 @@
   </sheetPr>
   <dimension ref="A1:N1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -62320,7 +62425,7 @@
       </c>
       <c r="C1" s="3">
         <f>COUNTIF(B4:B1004,"?*")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3">
         <f>COUNTIF(D4:J1004,"?*")</f>
@@ -62328,7 +62433,7 @@
       </c>
       <c r="E1" s="4">
         <f>C1+D1</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -62366,15 +62471,15 @@
       <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="60"/>
       <c r="K3" s="13" t="s">
         <v>6</v>
       </c>
@@ -62415,8 +62520,12 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="24">
+        <v>167</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>81</v>
+      </c>
       <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
@@ -62433,8 +62542,12 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="24">
+        <v>560</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>82</v>
+      </c>
       <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
@@ -62614,7 +62727,9 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B17" s="2"/>
+      <c r="B17" s="57" t="s">
+        <v>83</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="34"/>
       <c r="E17" s="4"/>
@@ -66610,15 +66725,15 @@
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
       <c r="K1" s="6" t="s">
         <v>6</v>
       </c>
